--- a/resources/excel/template-barekon.xlsx
+++ b/resources/excel/template-barekon.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victus\Downloads\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Project Iseng\4form-multitenant-v2.5\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB79251-F1FC-4E33-8B35-0CD929CEA809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74F9B7-6194-47FE-BB1B-DEBFEE70BF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{04153AF7-6E08-416E-894C-58D68B806A33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04153AF7-6E08-416E-894C-58D68B806A33}"/>
   </bookViews>
   <sheets>
     <sheet name="BAREKON" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BAREKON!$A$1:$M$155</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BAREKON!$A$1:$M$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="224">
   <si>
     <t>Nomor : ${no_ba_rekon}</t>
   </si>
@@ -719,9 +719,6 @@
     </r>
   </si>
   <si>
-    <t>TELKOM AKSES dan MITRA sepakat bahwa nilai hasil rekonsiliasi yang dapat diterbitkan BAST-1 adalah sebesar ${grand_total_rekon_formatted} (${terbilang_rekon}) belum termasuk PPN dengan rincian sebagai berikut:</t>
-  </si>
-  <si>
     <t>TELKOM AKSES dan MITRA sepakat bahwa harga borongan berdasarkan hasil Rekonsiliasi pekerjaan dimaksud (sudah termasuk PPN) adalah sebesar ${grand_total_rekon_with_ppn_formatted} (${terbilang_with_ppn}) dengan rincian sebagai berikut :</t>
   </si>
   <si>
@@ -815,6 +812,15 @@
   </si>
   <si>
     <t>${amd_khs_mitra_5}</t>
+  </si>
+  <si>
+    <t>PPN</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>TELKOM AKSES dan MITRA sepakat bahwa nilai hasil rekonsiliasi yang dapat diterbitkan BAST-1 adalah sebesar ${grand_total_rekon_with_ppn_formatted} (${terbilang_with_ppn}) sudah termasuk PPN dengan rincian sebagai berikut:</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1024,9 +1030,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1098,143 +1104,146 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1555,10 +1564,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1578,329 +1587,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="69" customHeight="1">
-      <c r="A1" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="A1" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13">
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
+      <c r="A6" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="A7" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="A8" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
+      <c r="F8" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="A9" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
+      <c r="F9" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
+      <c r="A10" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="F10" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" ht="66.75" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="12"/>
@@ -1925,493 +1934,493 @@
         <v>56</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="73" t="s">
+      <c r="J19" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="52" t="s">
+      <c r="K19" s="35"/>
+      <c r="L19" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="52"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="12"/>
       <c r="B20" s="9">
         <v>1</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="37" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="M20" s="67"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" s="51"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="12"/>
       <c r="B21" s="9">
         <v>2</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="37" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="M21" s="67"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="12"/>
       <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="37" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="M22" s="38"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="12"/>
       <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="37" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="M23" s="38"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="12"/>
       <c r="B24" s="9">
         <v>5</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="37" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="M24" s="38"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="12"/>
       <c r="B25" s="9">
         <v>6</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="37" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="M25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="12"/>
       <c r="B26" s="9">
         <v>7</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="37" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" s="38"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="12"/>
       <c r="B27" s="9">
         <v>8</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="37" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="M27" s="38"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" s="37"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="12"/>
       <c r="B28" s="9">
         <v>9</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="37" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="M28" s="38"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="12"/>
       <c r="B29" s="9">
         <v>10</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="37" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="M29" s="38"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="M29" s="37"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="12"/>
       <c r="B30" s="9">
         <v>11</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="37" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="M30" s="38"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="12"/>
       <c r="B31" s="9">
         <v>12</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="37" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="M31" s="38"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="12"/>
       <c r="B32" s="9">
         <v>13</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="37" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="M32" s="38"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12"/>
       <c r="B33" s="9">
         <v>14</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="37" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="M33" s="38"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="12"/>
       <c r="B34" s="9">
         <v>15</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="37" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M34" s="38"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" s="37"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="12"/>
       <c r="B35" s="9">
         <v>16</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="37" t="s">
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="M35" s="38"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="12"/>
       <c r="B36" s="9">
         <v>17</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="37" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="M36" s="38"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="M36" s="37"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="12"/>
       <c r="B37" s="9">
         <v>18</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="37" t="s">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="M37" s="38"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" s="37"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="12"/>
       <c r="B38" s="9">
         <v>19</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="37" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="M38" s="38"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="M38" s="37"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="12"/>
       <c r="B39" s="9">
         <v>20</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="37" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="M39" s="38"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="M39" s="37"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="12"/>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="12"/>
@@ -2420,20 +2429,20 @@
       <c r="A42" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="12"/>
@@ -2449,38 +2458,38 @@
     </row>
     <row r="44" spans="1:13" ht="40.5" customHeight="1">
       <c r="A44" s="12"/>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="12"/>
       <c r="B45" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="12"/>
@@ -2499,124 +2508,124 @@
     </row>
     <row r="47" spans="1:13" ht="57.75" customHeight="1">
       <c r="A47" s="12"/>
-      <c r="C47" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
+      <c r="C47" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="12"/>
       <c r="C48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
       <c r="M48" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="12"/>
-      <c r="C49" s="47">
+      <c r="C49" s="61">
         <v>1</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="41"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="32"/>
       <c r="M49" s="19"/>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="12"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="61" t="s">
+      <c r="C50" s="62"/>
+      <c r="D50" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="63"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="20"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="12"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="39" t="s">
+      <c r="C51" s="62"/>
+      <c r="D51" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="41"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="32"/>
       <c r="M51" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="12"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="39" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="41"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="32"/>
       <c r="M52" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="12"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="39" t="s">
+      <c r="C53" s="62"/>
+      <c r="D53" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="41"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="32"/>
       <c r="M53" s="24">
         <f>SUM(M51:M52)</f>
         <v>0</v>
@@ -2624,18 +2633,18 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="12"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="39" t="s">
+      <c r="C54" s="62"/>
+      <c r="D54" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="41"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="32"/>
       <c r="M54" s="24">
         <f>11%*M53</f>
         <v>0</v>
@@ -2643,18 +2652,18 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="12"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="39" t="s">
+      <c r="C55" s="63"/>
+      <c r="D55" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="41"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="32"/>
       <c r="M55" s="25">
         <f>SUM(M53:M54)</f>
         <v>0</v>
@@ -2662,72 +2671,72 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="12"/>
-      <c r="C56" s="47">
+      <c r="C56" s="61">
         <v>2</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="41"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="32"/>
       <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="12"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="39" t="s">
+      <c r="C57" s="62"/>
+      <c r="D57" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="41"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="32"/>
       <c r="M57" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="12"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="39" t="s">
+      <c r="C58" s="62"/>
+      <c r="D58" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="41"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="32"/>
       <c r="M58" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="12"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="39" t="s">
+      <c r="C59" s="62"/>
+      <c r="D59" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="41"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="32"/>
       <c r="M59" s="24">
         <f>SUM(M57:M58)</f>
         <v>0</v>
@@ -2735,18 +2744,18 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="12"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="39" t="s">
+      <c r="C60" s="62"/>
+      <c r="D60" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="41"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="32"/>
       <c r="M60" s="24">
         <f>11%*M59</f>
         <v>0</v>
@@ -2754,18 +2763,18 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="12"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="39" t="s">
+      <c r="C61" s="63"/>
+      <c r="D61" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="41"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="32"/>
       <c r="M61" s="25">
         <f>SUM(M59:M60)</f>
         <v>0</v>
@@ -2773,72 +2782,72 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1">
       <c r="A62" s="12"/>
-      <c r="C62" s="47">
+      <c r="C62" s="61">
         <v>3</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="41"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="32"/>
       <c r="M62" s="23"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="12"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="39" t="s">
+      <c r="C63" s="62"/>
+      <c r="D63" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="41"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="32"/>
       <c r="M63" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="12"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="39" t="s">
+      <c r="C64" s="62"/>
+      <c r="D64" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="41"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="32"/>
       <c r="M64" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="17.25" customHeight="1">
       <c r="A65" s="12"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="39" t="s">
+      <c r="C65" s="62"/>
+      <c r="D65" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="41"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="32"/>
       <c r="M65" s="24">
         <f>SUM(M63:M64)</f>
         <v>0</v>
@@ -2846,18 +2855,18 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="12"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="39" t="s">
+      <c r="C66" s="62"/>
+      <c r="D66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="41"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="32"/>
       <c r="M66" s="24">
         <f>11%*M65</f>
         <v>0</v>
@@ -2865,18 +2874,18 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="12"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="39" t="s">
+      <c r="C67" s="63"/>
+      <c r="D67" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="41"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="32"/>
       <c r="M67" s="25">
         <f>SUM(M65:M66)</f>
         <v>0</v>
@@ -2884,72 +2893,72 @@
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1">
       <c r="A68" s="12"/>
-      <c r="C68" s="47">
+      <c r="C68" s="61">
         <v>4</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="41"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="32"/>
       <c r="M68" s="23"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="12"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="39" t="s">
+      <c r="C69" s="62"/>
+      <c r="D69" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="41"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="32"/>
       <c r="M69" s="24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="12"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="39" t="s">
+      <c r="C70" s="62"/>
+      <c r="D70" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="41"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="32"/>
       <c r="M70" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="17.25" customHeight="1">
       <c r="A71" s="12"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="39" t="s">
+      <c r="C71" s="62"/>
+      <c r="D71" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="41"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="32"/>
       <c r="M71" s="24">
         <f>SUM(M69:M70)</f>
         <v>0</v>
@@ -2957,18 +2966,18 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="12"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="39" t="s">
+      <c r="C72" s="62"/>
+      <c r="D72" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="41"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="32"/>
       <c r="M72" s="24">
         <f>11%*M71</f>
         <v>0</v>
@@ -2976,18 +2985,18 @@
     </row>
     <row r="73" spans="1:13" ht="17.25" customHeight="1">
       <c r="A73" s="12"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="39" t="s">
+      <c r="C73" s="63"/>
+      <c r="D73" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="41"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="32"/>
       <c r="M73" s="25">
         <f>SUM(M71:M72)</f>
         <v>0</v>
@@ -2995,19 +3004,19 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="12"/>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="12"/>
@@ -3016,37 +3025,37 @@
       <c r="A76" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
     </row>
     <row r="77" spans="1:13" ht="34.5" customHeight="1">
       <c r="A77" s="12"/>
-      <c r="B77" s="69" t="s">
+      <c r="B77" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="69"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="65"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="12"/>
@@ -3067,37 +3076,37 @@
       <c r="A79" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
     </row>
     <row r="80" spans="1:13" ht="42" customHeight="1">
       <c r="A80" s="12"/>
-      <c r="B80" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="51"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="51"/>
+      <c r="B80" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="66"/>
+      <c r="M80" s="66"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="12"/>
@@ -3107,15 +3116,15 @@
       <c r="B82" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
       <c r="J82" s="14" t="s">
         <v>15</v>
       </c>
@@ -3134,15 +3143,15 @@
       <c r="B83" s="9">
         <v>1</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="56"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="40"/>
       <c r="J83" s="3" t="s">
         <v>73</v>
       </c>
@@ -3161,15 +3170,15 @@
       <c r="B84" s="9">
         <v>2</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="56"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="40"/>
       <c r="J84" s="3" t="s">
         <v>75</v>
       </c>
@@ -3188,15 +3197,15 @@
       <c r="B85" s="9">
         <v>3</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="56"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="40"/>
       <c r="J85" s="3" t="s">
         <v>76</v>
       </c>
@@ -3215,15 +3224,15 @@
       <c r="B86" s="9">
         <v>4</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="56"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="40"/>
       <c r="J86" s="3" t="s">
         <v>77</v>
       </c>
@@ -3242,15 +3251,15 @@
       <c r="B87" s="9">
         <v>5</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="56"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="40"/>
       <c r="J87" s="3" t="s">
         <v>78</v>
       </c>
@@ -3269,15 +3278,15 @@
       <c r="B88" s="9">
         <v>6</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="56"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="40"/>
       <c r="J88" s="3" t="s">
         <v>79</v>
       </c>
@@ -3296,15 +3305,15 @@
       <c r="B89" s="9">
         <v>7</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="56"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="40"/>
       <c r="J89" s="3" t="s">
         <v>80</v>
       </c>
@@ -3323,15 +3332,15 @@
       <c r="B90" s="9">
         <v>8</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="56"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="40"/>
       <c r="J90" s="3" t="s">
         <v>81</v>
       </c>
@@ -3350,15 +3359,15 @@
       <c r="B91" s="9">
         <v>9</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="56"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="40"/>
       <c r="J91" s="3" t="s">
         <v>82</v>
       </c>
@@ -3377,15 +3386,15 @@
       <c r="B92" s="9">
         <v>10</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="56"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="40"/>
       <c r="J92" s="3" t="s">
         <v>83</v>
       </c>
@@ -3404,15 +3413,15 @@
       <c r="B93" s="9">
         <v>11</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="56"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="40"/>
       <c r="J93" s="3" t="s">
         <v>84</v>
       </c>
@@ -3431,15 +3440,15 @@
       <c r="B94" s="9">
         <v>12</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="56"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="40"/>
       <c r="J94" s="3" t="s">
         <v>85</v>
       </c>
@@ -3458,15 +3467,15 @@
       <c r="B95" s="9">
         <v>13</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="56"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="40"/>
       <c r="J95" s="3" t="s">
         <v>86</v>
       </c>
@@ -3485,15 +3494,15 @@
       <c r="B96" s="9">
         <v>14</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="56"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="40"/>
       <c r="J96" s="3" t="s">
         <v>87</v>
       </c>
@@ -3512,15 +3521,15 @@
       <c r="B97" s="9">
         <v>15</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="56"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="40"/>
       <c r="J97" s="3" t="s">
         <v>88</v>
       </c>
@@ -3539,15 +3548,15 @@
       <c r="B98" s="9">
         <v>16</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="56"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="40"/>
       <c r="J98" s="3" t="s">
         <v>89</v>
       </c>
@@ -3566,15 +3575,15 @@
       <c r="B99" s="9">
         <v>17</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="56"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="40"/>
       <c r="J99" s="3" t="s">
         <v>90</v>
       </c>
@@ -3593,15 +3602,15 @@
       <c r="B100" s="9">
         <v>18</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="56"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="40"/>
       <c r="J100" s="3" t="s">
         <v>91</v>
       </c>
@@ -3620,15 +3629,15 @@
       <c r="B101" s="9">
         <v>19</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="56"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="40"/>
       <c r="J101" s="3" t="s">
         <v>92</v>
       </c>
@@ -3647,15 +3656,15 @@
       <c r="B102" s="9">
         <v>20</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="56"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="40"/>
       <c r="J102" s="3" t="s">
         <v>93</v>
       </c>
@@ -3671,230 +3680,224 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="12"/>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="54"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="2"/>
       <c r="K103" s="26">
         <f>SUM(K83:K102)</f>
         <v>0</v>
       </c>
       <c r="L103" s="26">
-        <f t="shared" ref="L103:M103" si="0">SUM(L83:L102)</f>
+        <f t="shared" ref="L103" si="0">SUM(L83:L102)</f>
         <v>0</v>
       </c>
       <c r="M103" s="26">
-        <f t="shared" si="0"/>
+        <f>SUM(M83:M102)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="12"/>
+      <c r="B104" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="68"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="68"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="69"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26">
+        <f>11%*M103</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="29">
+        <f>SUM(M103:M104)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="12"/>
-      <c r="B106" s="33" t="s">
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="12"/>
+      <c r="B108" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="33"/>
-      <c r="K106" s="33"/>
-      <c r="L106" s="33"/>
-      <c r="M106" s="33"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="12"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="12"/>
-      <c r="B109" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
-      <c r="E109" s="50"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="50"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="50"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L110" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="M110" s="22" t="s">
-        <v>173</v>
-      </c>
+      <c r="A110" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="56"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="56"/>
+      <c r="J110" s="56"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="12"/>
-      <c r="B111" s="9">
-        <v>1</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
-      <c r="K111" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="M111" s="28" t="s">
-        <v>185</v>
-      </c>
+      <c r="B111" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="50"/>
+      <c r="M111" s="50"/>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="12"/>
-      <c r="B112" s="9">
-        <v>2</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="M112" s="28"/>
+      <c r="B112" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="71"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="M112" s="22" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="12"/>
       <c r="B113" s="9">
-        <v>3</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
       <c r="K113" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L113" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M113" s="28"/>
+      <c r="M113" s="28" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="12"/>
       <c r="B114" s="9">
-        <v>4</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="39"/>
       <c r="K114" s="4" t="s">
         <v>60</v>
       </c>
@@ -3906,18 +3909,18 @@
     <row r="115" spans="1:13">
       <c r="A115" s="12"/>
       <c r="B115" s="9">
-        <v>5</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
       <c r="K115" s="4" t="s">
         <v>60</v>
       </c>
@@ -3929,18 +3932,18 @@
     <row r="116" spans="1:13">
       <c r="A116" s="12"/>
       <c r="B116" s="9">
-        <v>6</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="39"/>
       <c r="K116" s="4" t="s">
         <v>60</v>
       </c>
@@ -3952,18 +3955,18 @@
     <row r="117" spans="1:13">
       <c r="A117" s="12"/>
       <c r="B117" s="9">
-        <v>7</v>
-      </c>
-      <c r="C117" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+        <v>5</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="39"/>
       <c r="K117" s="4" t="s">
         <v>60</v>
       </c>
@@ -3975,18 +3978,18 @@
     <row r="118" spans="1:13">
       <c r="A118" s="12"/>
       <c r="B118" s="9">
-        <v>8</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+        <v>6</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="39"/>
       <c r="K118" s="4" t="s">
         <v>60</v>
       </c>
@@ -3998,18 +4001,18 @@
     <row r="119" spans="1:13">
       <c r="A119" s="12"/>
       <c r="B119" s="9">
-        <v>9</v>
-      </c>
-      <c r="C119" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
       <c r="K119" s="4" t="s">
         <v>60</v>
       </c>
@@ -4021,18 +4024,18 @@
     <row r="120" spans="1:13">
       <c r="A120" s="12"/>
       <c r="B120" s="9">
-        <v>10</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="39"/>
       <c r="K120" s="4" t="s">
         <v>60</v>
       </c>
@@ -4044,18 +4047,18 @@
     <row r="121" spans="1:13">
       <c r="A121" s="12"/>
       <c r="B121" s="9">
-        <v>11</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
       <c r="K121" s="4" t="s">
         <v>60</v>
       </c>
@@ -4067,18 +4070,18 @@
     <row r="122" spans="1:13">
       <c r="A122" s="12"/>
       <c r="B122" s="9">
-        <v>12</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
+        <v>10</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="39"/>
       <c r="K122" s="4" t="s">
         <v>60</v>
       </c>
@@ -4090,18 +4093,18 @@
     <row r="123" spans="1:13">
       <c r="A123" s="12"/>
       <c r="B123" s="9">
-        <v>13</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
       <c r="K123" s="4" t="s">
         <v>60</v>
       </c>
@@ -4113,18 +4116,18 @@
     <row r="124" spans="1:13">
       <c r="A124" s="12"/>
       <c r="B124" s="9">
-        <v>14</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="39"/>
       <c r="K124" s="4" t="s">
         <v>60</v>
       </c>
@@ -4136,18 +4139,18 @@
     <row r="125" spans="1:13">
       <c r="A125" s="12"/>
       <c r="B125" s="9">
-        <v>15</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
+        <v>13</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
       <c r="K125" s="4" t="s">
         <v>60</v>
       </c>
@@ -4159,18 +4162,18 @@
     <row r="126" spans="1:13">
       <c r="A126" s="12"/>
       <c r="B126" s="9">
-        <v>16</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
+        <v>14</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="39"/>
       <c r="K126" s="4" t="s">
         <v>60</v>
       </c>
@@ -4182,18 +4185,18 @@
     <row r="127" spans="1:13">
       <c r="A127" s="12"/>
       <c r="B127" s="9">
-        <v>17</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+        <v>15</v>
+      </c>
+      <c r="C127" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="39"/>
       <c r="K127" s="4" t="s">
         <v>60</v>
       </c>
@@ -4205,18 +4208,18 @@
     <row r="128" spans="1:13">
       <c r="A128" s="12"/>
       <c r="B128" s="9">
-        <v>18</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="39"/>
       <c r="K128" s="4" t="s">
         <v>60</v>
       </c>
@@ -4228,18 +4231,18 @@
     <row r="129" spans="1:13">
       <c r="A129" s="12"/>
       <c r="B129" s="9">
-        <v>19</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="39"/>
       <c r="K129" s="4" t="s">
         <v>60</v>
       </c>
@@ -4251,18 +4254,18 @@
     <row r="130" spans="1:13">
       <c r="A130" s="12"/>
       <c r="B130" s="9">
-        <v>20</v>
-      </c>
-      <c r="C130" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+        <v>18</v>
+      </c>
+      <c r="C130" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="39"/>
       <c r="K130" s="4" t="s">
         <v>60</v>
       </c>
@@ -4273,101 +4276,141 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="12"/>
+      <c r="B131" s="9">
+        <v>19</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M131" s="28"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="33"/>
-      <c r="L132" s="33"/>
-      <c r="M132" s="33"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="9">
+        <v>20</v>
+      </c>
+      <c r="C132" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M132" s="28"/>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="12"/>
-      <c r="B133" s="32" t="s">
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B134" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="56"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="56"/>
+      <c r="H134" s="56"/>
+      <c r="I134" s="56"/>
+      <c r="J134" s="56"/>
+      <c r="K134" s="56"/>
+      <c r="L134" s="56"/>
+      <c r="M134" s="56"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="12"/>
+      <c r="B135" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="32"/>
-      <c r="J133" s="32"/>
-      <c r="K133" s="32"/>
-      <c r="L133" s="32"/>
-      <c r="M133" s="32"/>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="12"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="32"/>
-      <c r="J135" s="32"/>
-      <c r="K135" s="32"/>
-      <c r="L135" s="32"/>
-      <c r="M135" s="32"/>
+      <c r="C135" s="75"/>
+      <c r="D135" s="75"/>
+      <c r="E135" s="75"/>
+      <c r="F135" s="75"/>
+      <c r="G135" s="75"/>
+      <c r="H135" s="75"/>
+      <c r="I135" s="75"/>
+      <c r="J135" s="75"/>
+      <c r="K135" s="75"/>
+      <c r="L135" s="75"/>
+      <c r="M135" s="75"/>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="12"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J137" s="34"/>
-      <c r="K137" s="34"/>
-      <c r="L137" s="34"/>
-      <c r="M137" s="34"/>
+      <c r="A137" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" s="75"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="75"/>
+      <c r="F137" s="75"/>
+      <c r="G137" s="75"/>
+      <c r="H137" s="75"/>
+      <c r="I137" s="75"/>
+      <c r="J137" s="75"/>
+      <c r="K137" s="75"/>
+      <c r="L137" s="75"/>
+      <c r="M137" s="75"/>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="12"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="12"/>
+      <c r="A139" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B139" s="60"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="60"/>
+      <c r="I139" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="60"/>
+      <c r="K139" s="60"/>
+      <c r="L139" s="60"/>
+      <c r="M139" s="60"/>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="12"/>
@@ -4379,221 +4422,245 @@
       <c r="A142" s="12"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="12"/>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="12"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="34" t="s">
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="60"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="J143" s="34"/>
-      <c r="K143" s="34"/>
-      <c r="L143" s="34"/>
-      <c r="M143" s="34"/>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="34" t="s">
+      <c r="J145" s="60"/>
+      <c r="K145" s="60"/>
+      <c r="L145" s="60"/>
+      <c r="M145" s="60"/>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B144" s="34"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="34"/>
-      <c r="I144" s="34" t="s">
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="60"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="60"/>
+      <c r="I146" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="J144" s="34"/>
-      <c r="K144" s="34"/>
-      <c r="L144" s="34"/>
-      <c r="M144" s="34"/>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="34" t="s">
+      <c r="J146" s="60"/>
+      <c r="K146" s="60"/>
+      <c r="L146" s="60"/>
+      <c r="M146" s="60"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="34"/>
-      <c r="L145" s="34"/>
-      <c r="M145" s="34"/>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="34" t="s">
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="60"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="60"/>
+      <c r="K147" s="60"/>
+      <c r="L147" s="60"/>
+      <c r="M147" s="60"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="34"/>
-      <c r="L146" s="34"/>
-      <c r="M146" s="34"/>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="34"/>
-      <c r="L152" s="34"/>
-      <c r="M152" s="34"/>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="34" t="s">
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="60"/>
+      <c r="F148" s="60"/>
+      <c r="G148" s="60"/>
+      <c r="H148" s="60"/>
+      <c r="I148" s="60"/>
+      <c r="J148" s="60"/>
+      <c r="K148" s="60"/>
+      <c r="L148" s="60"/>
+      <c r="M148" s="60"/>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="60"/>
+      <c r="L154" s="60"/>
+      <c r="M154" s="60"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="34"/>
-      <c r="L153" s="34"/>
-      <c r="M153" s="34"/>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="29"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="72" t="s">
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="60"/>
+      <c r="L155" s="60"/>
+      <c r="M155" s="60"/>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="74"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="74"/>
+      <c r="I156" s="74"/>
+      <c r="J156" s="74"/>
+      <c r="K156" s="74"/>
+      <c r="L156" s="74"/>
+      <c r="M156" s="74"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B155" s="72"/>
-      <c r="C155" s="72"/>
-      <c r="D155" s="72"/>
-      <c r="E155" s="72"/>
-      <c r="F155" s="72"/>
-      <c r="G155" s="72"/>
-      <c r="H155" s="72"/>
-      <c r="I155" s="72"/>
-      <c r="J155" s="72"/>
-      <c r="K155" s="72"/>
-      <c r="L155" s="72"/>
-      <c r="M155" s="72"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+      <c r="M157" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="194">
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="D72:L72"/>
-    <mergeCell ref="D73:L73"/>
+  <mergeCells count="196">
+    <mergeCell ref="A156:M156"/>
+    <mergeCell ref="C127:J127"/>
+    <mergeCell ref="C128:J128"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="C130:J130"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="C132:J132"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="C119:J119"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="C121:J121"/>
+    <mergeCell ref="C122:J122"/>
+    <mergeCell ref="C123:J123"/>
+    <mergeCell ref="C124:J124"/>
+    <mergeCell ref="C125:J125"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="A137:M137"/>
+    <mergeCell ref="B135:M135"/>
+    <mergeCell ref="B134:M134"/>
     <mergeCell ref="A155:M155"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="D68:L68"/>
-    <mergeCell ref="D69:L69"/>
-    <mergeCell ref="D70:L70"/>
-    <mergeCell ref="D71:L71"/>
-    <mergeCell ref="D66:L66"/>
-    <mergeCell ref="D67:L67"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C74:M74"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="A154:M154"/>
+    <mergeCell ref="A148:M148"/>
+    <mergeCell ref="A147:M147"/>
+    <mergeCell ref="A146:H146"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="C114:J114"/>
+    <mergeCell ref="C115:J115"/>
+    <mergeCell ref="C116:J116"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="D60:L60"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C44:M44"/>
+    <mergeCell ref="C45:M45"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="D59:L59"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B111:M111"/>
+    <mergeCell ref="B110:M110"/>
+    <mergeCell ref="B107:M107"/>
+    <mergeCell ref="B108:M108"/>
+    <mergeCell ref="B80:M80"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="B103:I103"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="C85:I85"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="C87:I87"/>
+    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="C94:I94"/>
+    <mergeCell ref="C95:I95"/>
+    <mergeCell ref="C96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="B105:I105"/>
+    <mergeCell ref="C99:I99"/>
+    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A139:H139"/>
+    <mergeCell ref="I146:M146"/>
+    <mergeCell ref="I145:M145"/>
+    <mergeCell ref="I139:M139"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="D58:L58"/>
+    <mergeCell ref="D61:L61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D62:L62"/>
     <mergeCell ref="B79:M79"/>
     <mergeCell ref="B76:M76"/>
     <mergeCell ref="B77:M77"/>
     <mergeCell ref="C101:I101"/>
     <mergeCell ref="C102:I102"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="D67:L67"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="F15:M15"/>
@@ -4612,17 +4679,14 @@
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="D63:L63"/>
     <mergeCell ref="D64:L64"/>
-    <mergeCell ref="D65:L65"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="A137:H137"/>
-    <mergeCell ref="I144:M144"/>
-    <mergeCell ref="I143:M143"/>
-    <mergeCell ref="I137:M137"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="C36:I36"/>
     <mergeCell ref="C37:I37"/>
     <mergeCell ref="C38:I38"/>
@@ -4630,88 +4694,75 @@
     <mergeCell ref="D48:L48"/>
     <mergeCell ref="D49:L49"/>
     <mergeCell ref="D50:L50"/>
+    <mergeCell ref="C74:M74"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D72:L72"/>
+    <mergeCell ref="D73:L73"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="D51:L51"/>
     <mergeCell ref="D52:L52"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="D56:L56"/>
-    <mergeCell ref="D57:L57"/>
-    <mergeCell ref="D58:L58"/>
-    <mergeCell ref="D61:L61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D62:L62"/>
-    <mergeCell ref="B109:M109"/>
-    <mergeCell ref="B108:M108"/>
-    <mergeCell ref="B105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="B80:M80"/>
-    <mergeCell ref="C82:I82"/>
-    <mergeCell ref="B103:I103"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="C85:I85"/>
-    <mergeCell ref="C86:I86"/>
-    <mergeCell ref="C87:I87"/>
-    <mergeCell ref="C88:I88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="C94:I94"/>
-    <mergeCell ref="C95:I95"/>
-    <mergeCell ref="C96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="C100:I100"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="C114:J114"/>
-    <mergeCell ref="C115:J115"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="D60:L60"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C44:M44"/>
-    <mergeCell ref="C45:M45"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="D59:L59"/>
-    <mergeCell ref="J37:K37"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A154:M154"/>
-    <mergeCell ref="C125:J125"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="C127:J127"/>
-    <mergeCell ref="C128:J128"/>
-    <mergeCell ref="C129:J129"/>
-    <mergeCell ref="C130:J130"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="C119:J119"/>
-    <mergeCell ref="C120:J120"/>
-    <mergeCell ref="C121:J121"/>
-    <mergeCell ref="C122:J122"/>
-    <mergeCell ref="C123:J123"/>
-    <mergeCell ref="C124:J124"/>
-    <mergeCell ref="A135:M135"/>
-    <mergeCell ref="B133:M133"/>
-    <mergeCell ref="B132:M132"/>
-    <mergeCell ref="A153:M153"/>
-    <mergeCell ref="A152:M152"/>
-    <mergeCell ref="A146:M146"/>
-    <mergeCell ref="A145:M145"/>
-    <mergeCell ref="A144:H144"/>
+    <mergeCell ref="D69:L69"/>
+    <mergeCell ref="D70:L70"/>
+    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="A157:M157"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="D68:L68"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.66718750000000004" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
